--- a/Week 3/Ex. 4 - Template.xlsx
+++ b/Week 3/Ex. 4 - Template.xlsx
@@ -1,22 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marta\Documents\FEUP - Aulas\GEE\Aula 2 MCF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diogo Nunes\FEUP\GEE\Week 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC0180A1-FF90-4E73-899F-464FFAC3C587}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="english" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -117,7 +128,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -571,29 +582,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6328125" customWidth="1"/>
+    <col min="1" max="1" width="27.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E3" s="7" t="s">
         <v>5</v>
       </c>
@@ -601,7 +612,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -612,7 +623,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -626,7 +637,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -634,7 +645,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -642,7 +653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -650,7 +661,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
         <v>11</v>
       </c>
@@ -664,7 +675,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -681,7 +692,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -695,7 +706,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
@@ -712,34 +723,58 @@
         <v>40634</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B16" s="6">
+        <v>11250</v>
+      </c>
+      <c r="C16" s="6">
+        <v>15000</v>
+      </c>
+      <c r="D16" s="6">
+        <v>18750</v>
+      </c>
+      <c r="E16" s="6">
+        <v>22500</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B17" s="6">
+        <v>15000</v>
+      </c>
+      <c r="C17" s="6">
+        <v>20000</v>
+      </c>
+      <c r="D17" s="6">
+        <v>25000</v>
+      </c>
+      <c r="E17" s="6">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B18" s="6">
+        <v>7500</v>
+      </c>
+      <c r="C18" s="6">
+        <v>3750</v>
+      </c>
+      <c r="D18" s="6">
+        <v>1250</v>
+      </c>
+      <c r="E18" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>23</v>
       </c>
@@ -756,34 +791,61 @@
         <v>40634</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
+      <c r="B22" s="6">
+        <f>B11*B5</f>
+        <v>20000</v>
+      </c>
+      <c r="C22" s="6">
+        <f>C11*B5</f>
+        <v>25000</v>
+      </c>
+      <c r="D22" s="6">
+        <f>D11*B5</f>
+        <v>30000</v>
+      </c>
       <c r="E22" s="6"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
+      <c r="B23" s="6">
+        <f>B11*B6</f>
+        <v>15000</v>
+      </c>
+      <c r="C23" s="6">
+        <f>C11*B6</f>
+        <v>18750</v>
+      </c>
+      <c r="D23" s="6">
+        <f>D11*B6</f>
+        <v>22500</v>
+      </c>
       <c r="E23" s="6"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
+      <c r="B24" s="6">
+        <f>B22-B23</f>
+        <v>5000</v>
+      </c>
+      <c r="C24" s="6">
+        <f t="shared" ref="C24:D24" si="0">C22-C23</f>
+        <v>6250</v>
+      </c>
+      <c r="D24" s="6">
+        <f t="shared" si="0"/>
+        <v>7500</v>
+      </c>
       <c r="E24" s="6"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>24</v>
       </c>
@@ -800,31 +862,58 @@
         <v>40634</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
+      <c r="B28" s="6">
+        <f>B17</f>
+        <v>15000</v>
+      </c>
+      <c r="C28" s="6">
+        <f t="shared" ref="C28:D28" si="1">C17</f>
+        <v>20000</v>
+      </c>
+      <c r="D28" s="6">
+        <f t="shared" si="1"/>
+        <v>25000</v>
+      </c>
       <c r="E28" s="6"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
+      <c r="B29" s="6">
+        <f>B12*B6</f>
+        <v>18750</v>
+      </c>
+      <c r="C29" s="6">
+        <f>C12*B6</f>
+        <v>22500</v>
+      </c>
+      <c r="D29" s="6">
+        <f>D12*B6</f>
+        <v>26250</v>
+      </c>
       <c r="E29" s="6"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
+      <c r="B30" s="6">
+        <f>B28-B29</f>
+        <v>-3750</v>
+      </c>
+      <c r="C30" s="6">
+        <f t="shared" ref="C30:D30" si="2">C28-C29</f>
+        <v>-2500</v>
+      </c>
+      <c r="D30" s="6">
+        <f t="shared" si="2"/>
+        <v>-1250</v>
+      </c>
       <c r="E30" s="6"/>
     </row>
   </sheetData>
@@ -840,12 +929,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
